--- a/3x3grid.xlsx
+++ b/3x3grid.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\vscode\traffic-optimization_RL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\traffic-optimization_RL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5184757B-EE18-44B8-9E40-76057BC2C4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20670" windowHeight="8490"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>n_nl</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,13 +88,49 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_ccl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_csl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_csc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_ccr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_sr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_csr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,16 +464,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -459,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -488,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -499,18 +536,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" t="s">
         <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -519,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -530,18 +576,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" t="s">
         <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -550,9 +605,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
